--- a/results/mp/tinybert/corona/confidence/84/0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,7 +40,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
@@ -49,172 +49,142 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>war</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>relief</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>energy</t>
@@ -223,58 +193,67 @@
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -632,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -751,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.92</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.96875</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9444444444444444</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
         <v>17</v>
@@ -993,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.925</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6948051948051948</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5333333333333333</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4642857142857143</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8627450980392157</v>
+        <v>0.8046875</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,645 +1330,453 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4210526315789473</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>239</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>8</v>
       </c>
-      <c r="D16">
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L17">
+        <v>92</v>
+      </c>
+      <c r="M17">
+        <v>92</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L19">
+        <v>77</v>
+      </c>
+      <c r="M19">
+        <v>77</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.7125</v>
+      </c>
+      <c r="L20">
+        <v>114</v>
+      </c>
+      <c r="M20">
+        <v>114</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L22">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>8</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1" t="s">
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K16">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L16">
-        <v>44</v>
-      </c>
-      <c r="M16">
-        <v>44</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="K24">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L26">
+        <v>58</v>
+      </c>
+      <c r="M26">
+        <v>58</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L28">
+        <v>38</v>
+      </c>
+      <c r="M28">
+        <v>38</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L17">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>24</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>23</v>
       </c>
-      <c r="M17">
-        <v>23</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L18">
-        <v>45</v>
-      </c>
-      <c r="M18">
-        <v>45</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3218884120171674</v>
-      </c>
-      <c r="C19">
-        <v>75</v>
-      </c>
-      <c r="D19">
-        <v>75</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>158</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>66</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1375</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>69</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <v>20</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.1</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>99</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.7678571428571429</v>
-      </c>
-      <c r="L23">
-        <v>43</v>
-      </c>
-      <c r="M23">
-        <v>43</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>123</v>
-      </c>
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K24">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L24">
-        <v>13</v>
-      </c>
-      <c r="M24">
-        <v>13</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.75</v>
-      </c>
-      <c r="L25">
-        <v>9</v>
-      </c>
-      <c r="M25">
-        <v>9</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L26">
-        <v>43</v>
-      </c>
-      <c r="M26">
-        <v>43</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L27">
-        <v>24</v>
-      </c>
-      <c r="M27">
-        <v>24</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>21</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29">
-        <v>0.7</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>7</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L31">
-        <v>51</v>
-      </c>
-      <c r="M31">
-        <v>51</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K32">
-        <v>0.6923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2001,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.6923076923076923</v>
+        <v>0.4934725848563969</v>
       </c>
       <c r="L33">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="M33">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2027,15 +1814,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L34">
         <v>16</v>
@@ -2053,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.64</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2079,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.6153846153846154</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2105,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.6153846153846154</v>
+        <v>0.45</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2131,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2157,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5909090909090909</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2183,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5882352941176471</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2209,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.5789473684210527</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2235,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2261,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.5305164319248826</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L43">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2287,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2313,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.4930555555555556</v>
+        <v>0.328125</v>
       </c>
       <c r="L45">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2339,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.4806201550387597</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L46">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2365,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.4673913043478261</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2391,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.4666666666666667</v>
+        <v>0.02572706935123042</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2417,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>871</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.45</v>
+        <v>0.0175</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2443,73 +2230,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.4285714285714285</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>973</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.3243243243243243</v>
+        <v>0.009813084112149532</v>
       </c>
       <c r="L51">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.28125</v>
+        <v>0.009011908593498551</v>
       </c>
       <c r="L52">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2521,163 +2308,189 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.28</v>
+        <v>0.00900163666121113</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.1666666666666667</v>
+        <v>0.008614232209737827</v>
       </c>
       <c r="L54">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.05263157894736842</v>
+        <v>0.007167630057803468</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>126</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.02439024390243903</v>
+        <v>0.00672834314550042</v>
       </c>
       <c r="L56">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>400</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.01973684210526316</v>
+        <v>0.006408972561586221</v>
       </c>
       <c r="L57">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>447</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.007445589919816724</v>
+        <v>0.005635023840485479</v>
       </c>
       <c r="L58">
         <v>13</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>1733</v>
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59">
+        <v>0.00484402247626429</v>
+      </c>
+      <c r="L59">
+        <v>25</v>
+      </c>
+      <c r="M59">
+        <v>29</v>
+      </c>
+      <c r="N59">
+        <v>0.86</v>
+      </c>
+      <c r="O59">
+        <v>0.14</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5136</v>
       </c>
     </row>
   </sheetData>
